--- a/data/trans_dic/P37A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37A-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que con las horas que duerme, descansa lo suficiente</t>
+          <t>Población que con las horas que duerme, descansa lo suficiente (tasa de respuesta: 99,16%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>84,94%</t>
+          <t>83,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>88,91%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>82,72%</t>
+          <t>83,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>80,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>74,57%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>82,35%</t>
+          <t>80,94%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>82,65%</t>
+          <t>74,24%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>85,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>78,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>82,31%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>84,1%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>84,48%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>78,13%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,37; 89,75</t>
+          <t>75,54; 89,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,36; 91,32</t>
+          <t>81,53; 91,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,31; 92,0</t>
+          <t>84,6; 92,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77,44; 86,58</t>
+          <t>76,25; 90,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,74; 84,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,95; 82,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,63; 86,47</t>
+          <t>74,54; 86,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>68,89; 79,76</t>
+          <t>76,77; 85,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>78,01; 86,05</t>
+          <t>76,63; 84,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>79,61; 85,14</t>
+          <t>64,4; 81,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>81,96; 87,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>74,53; 81,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>77,08; 86,86</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>80,61; 86,96</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>81,14; 87,18</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>71,83; 83,57</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>81,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,93%</t>
+          <t>79,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77,78%</t>
+          <t>77,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>78,29%</t>
+          <t>74,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>72,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>68,45%</t>
+          <t>73,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>60,2%</t>
+          <t>68,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>77,66%</t>
+          <t>68,81%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>62,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>73,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>70,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>77,23%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>73,7%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>73,35%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>68,77%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,87; 85,5</t>
+          <t>74,9; 85,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,34; 83,37</t>
+          <t>74,17; 82,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,15; 81,59</t>
+          <t>72,91; 81,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,28; 82,2</t>
+          <t>69,57; 80,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>68,75; 76,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,79; 71,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,59; 72,1</t>
+          <t>68,34; 77,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>55,48; 64,53</t>
+          <t>64,03; 72,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>74,6; 80,17</t>
+          <t>65,06; 72,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>71,67; 76,79</t>
+          <t>57,44; 67,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>70,38; 75,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>66,98; 73,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>73,69; 80,73</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>70,26; 76,42</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>70,42; 75,67</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>65,07; 72,58</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>78,27%</t>
+          <t>76,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>76,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>78,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74,88%</t>
+          <t>72,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>70,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>67,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66,44%</t>
+          <t>69,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>68,09%</t>
+          <t>66,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>74,52%</t>
+          <t>66,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>71,77%</t>
+          <t>66,36%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>72,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>73,1%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>71,21%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>72,38%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>69,41%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>72,92; 83,23</t>
+          <t>69,29; 82,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>71,22; 80,09</t>
+          <t>71,36; 80,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74,3; 82,56</t>
+          <t>74,55; 82,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>64,23; 81,35</t>
+          <t>65,34; 78,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,13; 74,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,7; 71,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,53; 70,31</t>
+          <t>64,02; 74,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>62,38; 73,87</t>
+          <t>62,0; 70,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,84; 77,45</t>
+          <t>62,1; 70,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68,6; 74,49</t>
+          <t>61,25; 71,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69,34; 75,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>66,25; 76,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>68,46; 77,08</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>67,79; 74,37</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>69,49; 75,17</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>65,18; 72,79</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>80,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>80,46%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>78,85%</t>
+          <t>79,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>73,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>74,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>69,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>77,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>75,53%</t>
+          <t>69,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>75,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>72,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>77,57%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>75,57%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>74,75%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,63; 83,99</t>
+          <t>75,49; 84,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,09; 82,62</t>
+          <t>75,54; 85,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,84; 82,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,89; 81,77</t>
+          <t>73,45; 83,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,51; 76,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,57; 73,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>68,96; 73,68</t>
+          <t>69,58; 77,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,11; 70,23</t>
+          <t>64,13; 73,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>75,76; 79,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,85; 77,05</t>
+          <t>64,97; 74,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,95; 77,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,9; 75,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>74,31; 80,22</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>71,91; 78,89</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>70,74; 78,07</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>80,42%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>80,24%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>80,27%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>76,81%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>73,79%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>70,33%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>71,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>67,66%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>77,04%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>75,2%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>75,62%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>72,15%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77,29; 83,12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>77,96; 82,31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>77,53; 82,51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>73,77; 79,59</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>71,23; 76,24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>67,8; 72,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>68,9; 73,18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>64,6; 70,49</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>75,07; 78,82</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>73,5; 76,85</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>73,76; 77,38</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>70,0; 74,2</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que con las horas que duerme, descansa lo suficiente (tasa de respuesta: 99,16%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>407.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>557.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>271858</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>449004</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>630933</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>371369</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>340983</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>509936</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>716809</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>470970</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>612841</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>958941</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1347742</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>842339</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>246592; 292454</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>419872; 470221</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>600407; 656404</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>338350; 400311</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>311648; 362519</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>479993; 536834</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>678642; 749600</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>408526; 515674</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>573921; 646726</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>919106; 991542</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1294496; 1390850</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>774381; 900927</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>445.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>459.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>523.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>730.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>904.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>747854</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>949879</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1239121</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>784607</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>718291</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>823225</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1010667</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>666328</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1466145</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1773105</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2249788</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1450935</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>687477; 785875</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>889753; 990216</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1165235; 1298797</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>730769; 840757</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>670136; 763700</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>772306; 871485</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>955609; 1062259</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>608541; 718714</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1398993; 1532520</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1690282; 1838510</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2159693; 2320788</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1372952; 1531253</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>403.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>569.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>742.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>541615</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>643485</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>844670</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>592699</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>532547</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>622611</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>763958</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>578928</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1074161</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1266096</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1608628</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1171628</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>489989; 581572</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>599412; 680304</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>800475; 887798</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>532913; 637843</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>488121; 566559</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>581635; 661887</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>713324; 805610</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>534362; 622517</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1006019; 1132739</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1205310; 1322412</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1544533; 1670651</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1100333; 1228703</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>745.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>465.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1158071</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>689264</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>858411</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1010463</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>513743</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>669111</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2168534</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1203007</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1527522</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1079563; 1210114</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>642011; 724658</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>796607; 908369</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>950017; 1060021</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>475831; 548401</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>623104; 718105</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2077254; 2242454</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1144612; 1255846</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1445675; 1595414</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>920.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1066.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1057.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>775.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>963.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1120.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1146.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>811.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1883.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2186.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2203.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1586.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2719397</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2731633</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2714723</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2607087</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2602284</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2469514</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2491435</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2385336</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5321682</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5201147</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5206158</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4992423</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2613528; 2810660</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2654008; 2802130</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2621973; 2790212</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2504060; 2701301</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2512030; 2688480</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2380915; 2548241</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2413603; 2563657</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2277273; 2484873</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5186042; 5444613</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>5083310; 5314678</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>5078358; 5327278</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>4843465; 5134380</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
